--- a/starting_files/Carriers.xlsx
+++ b/starting_files/Carriers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Courses Teaching\Centennial College\COMP126 F16\Course Projects\Integrating MsOffice Project F16\Cell Phones for Sale - Exploring Office 2013 Vol1 CEd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DONKAMS\Downloads\UsedPhonesDB_Management\starting_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892560D8-3BC1-47DA-B640-178708387570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="1" r:id="rId1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,9 +162,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -497,7 +498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
